--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58421.73650442941</v>
+        <v>72148.09464184758</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10384610.52147057</v>
+        <v>10208330.5779121</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24660243.1456963</v>
+        <v>24483963.20213782</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2972960.230139177</v>
+        <v>3060021.080760467</v>
       </c>
     </row>
     <row r="11">
@@ -9258,7 +9260,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
         <v>94.49434172313325</v>
@@ -9416,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,19 +9564,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9717,19 +9719,19 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9799,7 +9801,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>92.09541281912071</v>
@@ -9878,10 +9880,10 @@
         <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,22 +9956,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
         <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>94.49434172313325</v>
@@ -10039,16 +10041,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10197,7 +10199,7 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
         <v>135.370731907559</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,7 +10670,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>94.49434172313325</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11075,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -23850,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -24008,7 +24010,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>150.3839754851235</v>
@@ -24066,16 +24068,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>77.12765456497084</v>
+        <v>87.25340171355576</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
         <v>51.84373129681028</v>
@@ -24090,7 +24092,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24154,19 +24156,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>61.14583096471014</v>
@@ -24309,19 +24311,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>65.92768427608706</v>
@@ -24391,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -24470,10 +24472,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>110.5750244233121</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24546,22 +24548,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24631,16 +24633,16 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>61.14583096471014</v>
@@ -24789,7 +24791,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
         <v>38.66169381481656</v>
@@ -24938,7 +24940,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>108.0327934026353</v>
@@ -25017,28 +25019,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25260,7 +25262,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
         <v>51.84373129681028</v>
@@ -25272,7 +25274,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -25424,7 +25426,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
         <v>117.8828208804077</v>
@@ -25667,7 +25669,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>150.3839754851235</v>
@@ -25728,7 +25730,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
@@ -25749,7 +25751,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>78.03303713061706</v>
@@ -25910,7 +25912,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25989,7 +25991,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>78.03303713061706</v>
+        <v>123.5547069419379</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26047,7 +26049,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
         <v>90.4687457914608</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>187765.5909566318</v>
+        <v>192657.4251299174</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>171122.0139626413</v>
+        <v>171531.8174962914</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>183803.333321696</v>
+        <v>198637.9880329445</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>266953.3741672094</v>
+        <v>309745.1289038616</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>283350.1863563856</v>
+        <v>279503.3814941623</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>210490.6229695055</v>
+        <v>278856.3690631902</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>190038.7470183324</v>
+        <v>180607.232914963</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>236447.1407938229</v>
+        <v>221044.0398916555</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>185828.6961553</v>
+        <v>204796.4608921716</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152485.5316383463</v>
+        <v>154301.354011648</v>
       </c>
     </row>
   </sheetData>
@@ -26326,34 +26328,34 @@
         <v>67619.49700803329</v>
       </c>
       <c r="G2" t="n">
-        <v>64015.3818602295</v>
+        <v>65343.16542154989</v>
       </c>
       <c r="H2" t="n">
-        <v>59497.83953328925</v>
+        <v>59609.07192099428</v>
       </c>
       <c r="I2" t="n">
-        <v>62939.91193074694</v>
+        <v>66966.46106665728</v>
       </c>
       <c r="J2" t="n">
-        <v>85509.20873167206</v>
+        <v>97124.1135887634</v>
       </c>
       <c r="K2" t="n">
-        <v>89959.77204016273</v>
+        <v>88915.63929184499</v>
       </c>
       <c r="L2" t="n">
-        <v>70183.60483515244</v>
+        <v>88740.02163200968</v>
       </c>
       <c r="M2" t="n">
-        <v>64632.38136269111</v>
+        <v>62072.39896320511</v>
       </c>
       <c r="N2" t="n">
-        <v>77228.94538746715</v>
+        <v>73048.10371402171</v>
       </c>
       <c r="O2" t="n">
-        <v>63489.65327129664</v>
+        <v>68638.04655701894</v>
       </c>
       <c r="P2" t="n">
-        <v>54439.36575955202</v>
+        <v>54932.23183230536</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26430,34 +26432,34 @@
         <v>19538.94426908263</v>
       </c>
       <c r="G4" t="n">
-        <v>15934.82912127887</v>
+        <v>17262.61268259926</v>
       </c>
       <c r="H4" t="n">
-        <v>11417.28679433862</v>
+        <v>11528.51918204364</v>
       </c>
       <c r="I4" t="n">
-        <v>14859.35919179631</v>
+        <v>18885.90832770665</v>
       </c>
       <c r="J4" t="n">
-        <v>37428.6559927214</v>
+        <v>49043.56084981273</v>
       </c>
       <c r="K4" t="n">
-        <v>41879.21930121207</v>
+        <v>40835.08655289431</v>
       </c>
       <c r="L4" t="n">
-        <v>22103.05209620178</v>
+        <v>40659.46889305903</v>
       </c>
       <c r="M4" t="n">
-        <v>16551.82862374049</v>
+        <v>13991.84622425448</v>
       </c>
       <c r="N4" t="n">
-        <v>29148.3926485165</v>
+        <v>24967.55097507107</v>
       </c>
       <c r="O4" t="n">
-        <v>15409.100532346</v>
+        <v>20557.49381806829</v>
       </c>
       <c r="P4" t="n">
-        <v>6358.813020601385</v>
+        <v>6851.679093354725</v>
       </c>
     </row>
     <row r="5">
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-88631.05936605764</v>
+        <v>-88631.0593660577</v>
       </c>
       <c r="F6" t="n">
         <v>44468.94063394234</v>
@@ -26543,22 +26545,22 @@
         <v>44468.94063394231</v>
       </c>
       <c r="J6" t="n">
-        <v>44468.94063394234</v>
+        <v>44468.94063394235</v>
       </c>
       <c r="K6" t="n">
-        <v>44468.94063394234</v>
+        <v>44468.94063394235</v>
       </c>
       <c r="L6" t="n">
-        <v>44468.94063394234</v>
+        <v>44468.94063394232</v>
       </c>
       <c r="M6" t="n">
         <v>44468.94063394231</v>
       </c>
       <c r="N6" t="n">
-        <v>44468.94063394233</v>
+        <v>44468.94063394232</v>
       </c>
       <c r="O6" t="n">
-        <v>44468.94063394231</v>
+        <v>44468.94063394232</v>
       </c>
       <c r="P6" t="n">
         <v>44468.94063394231</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72148.09464184758</v>
+        <v>-52961.80415562908</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10208330.5779121</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24483963.20213782</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3060021.080760467</v>
+        <v>4140640.804843332</v>
       </c>
     </row>
     <row r="11">
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,10 +9248,10 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
         <v>38.66169381481656</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9567,10 +9567,10 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
         <v>96.22962838366004</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9728,13 +9728,13 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
         <v>94.49434172313325</v>
@@ -9801,7 +9801,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
         <v>92.09541281912071</v>
@@ -9880,13 +9880,13 @@
         <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
         <v>117.8828208804077</v>
@@ -9971,7 +9971,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
         <v>94.49434172313325</v>
@@ -10038,7 +10038,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
         <v>92.09541281912071</v>
@@ -10117,16 +10117,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
         <v>135.4597561231036</v>
@@ -10199,10 +10199,10 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
         <v>57.81213424001893</v>
@@ -10354,19 +10354,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
         <v>150.3839754851235</v>
@@ -10442,7 +10442,7 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
         <v>65.92768427608706</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,19 +10670,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
         <v>94.49434172313325</v>
@@ -10825,22 +10825,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
         <v>150.3839754851235</v>
@@ -10907,22 +10907,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,25 +11062,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
         <v>94.49434172313325</v>
@@ -11232,10 +11232,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,28 +11378,28 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,19 +11457,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
         <v>101.5955875616828</v>
@@ -23202,28 +23202,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23518,31 +23518,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23755,31 +23755,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23840,10 +23840,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -23992,31 +23992,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24068,31 +24068,31 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24159,10 +24159,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -24229,28 +24229,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24320,13 +24320,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24393,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -24472,13 +24472,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -24563,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -24709,16 +24709,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -24791,10 +24791,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -24946,19 +24946,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25034,7 +25034,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -25177,31 +25177,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25262,19 +25262,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -25417,22 +25417,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25499,22 +25499,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25654,25 +25654,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25730,25 +25730,25 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25888,28 +25888,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25970,28 +25970,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26049,19 +26049,19 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>339287.2723148487</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>201043.9099222245</v>
+        <v>352041.365785572</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>192657.4251299174</v>
+        <v>352041.365785572</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>171531.8174962914</v>
+        <v>352041.365785572</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>198637.9880329445</v>
+        <v>352041.365785572</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>309745.1289038616</v>
+        <v>352041.365785572</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>279503.3814941623</v>
+        <v>352041.365785572</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>278856.3690631902</v>
+        <v>352041.365785572</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180607.232914963</v>
+        <v>352041.365785572</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>221044.0398916555</v>
+        <v>352041.365785572</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>204796.4608921716</v>
+        <v>352041.365785572</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154301.354011648</v>
+        <v>352041.365785572</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>102132.0352548741</v>
       </c>
       <c r="D2" t="n">
-        <v>92092.25962831607</v>
+        <v>102132.0352548741</v>
       </c>
       <c r="E2" t="n">
         <v>108604.5207423704</v>
       </c>
       <c r="F2" t="n">
-        <v>67619.49700803329</v>
+        <v>108604.5207423704</v>
       </c>
       <c r="G2" t="n">
-        <v>65343.16542154989</v>
+        <v>108604.5207423704</v>
       </c>
       <c r="H2" t="n">
-        <v>59609.07192099428</v>
+        <v>108604.5207423704</v>
       </c>
       <c r="I2" t="n">
-        <v>66966.46106665728</v>
+        <v>108604.5207423704</v>
       </c>
       <c r="J2" t="n">
-        <v>97124.1135887634</v>
+        <v>108604.5207423704</v>
       </c>
       <c r="K2" t="n">
-        <v>88915.63929184499</v>
+        <v>108604.5207423704</v>
       </c>
       <c r="L2" t="n">
-        <v>88740.02163200968</v>
+        <v>108604.5207423704</v>
       </c>
       <c r="M2" t="n">
-        <v>62072.39896320511</v>
+        <v>108604.5207423704</v>
       </c>
       <c r="N2" t="n">
-        <v>73048.10371402171</v>
+        <v>108604.5207423704</v>
       </c>
       <c r="O2" t="n">
-        <v>68638.04655701894</v>
+        <v>108604.5207423704</v>
       </c>
       <c r="P2" t="n">
-        <v>54932.23183230536</v>
+        <v>108604.5207423704</v>
       </c>
     </row>
     <row r="3">
@@ -26423,43 +26423,43 @@
         <v>102132.0352548741</v>
       </c>
       <c r="D4" t="n">
-        <v>92092.25962831607</v>
+        <v>102132.0352548741</v>
       </c>
       <c r="E4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="F4" t="n">
-        <v>19538.94426908263</v>
+        <v>60523.96800341976</v>
       </c>
       <c r="G4" t="n">
-        <v>17262.61268259926</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="H4" t="n">
-        <v>11528.51918204364</v>
+        <v>60523.96800341976</v>
       </c>
       <c r="I4" t="n">
-        <v>18885.90832770665</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="J4" t="n">
-        <v>49043.56084981273</v>
+        <v>60523.96800341976</v>
       </c>
       <c r="K4" t="n">
-        <v>40835.08655289431</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="L4" t="n">
-        <v>40659.46889305903</v>
+        <v>60523.96800341976</v>
       </c>
       <c r="M4" t="n">
-        <v>13991.84622425448</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="N4" t="n">
-        <v>24967.55097507107</v>
+        <v>60523.96800341976</v>
       </c>
       <c r="O4" t="n">
-        <v>20557.49381806829</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="P4" t="n">
-        <v>6851.679093354725</v>
+        <v>60523.96800341976</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="E6" t="n">
-        <v>-88631.0593660577</v>
+        <v>-103441.0762051716</v>
       </c>
       <c r="F6" t="n">
-        <v>44468.94063394234</v>
+        <v>29658.92379482842</v>
       </c>
       <c r="G6" t="n">
-        <v>44468.94063394231</v>
+        <v>29658.92379482842</v>
       </c>
       <c r="H6" t="n">
-        <v>44468.94063394231</v>
+        <v>29658.92379482842</v>
       </c>
       <c r="I6" t="n">
-        <v>44468.94063394231</v>
+        <v>29658.92379482842</v>
       </c>
       <c r="J6" t="n">
-        <v>44468.94063394235</v>
+        <v>29658.92379482842</v>
       </c>
       <c r="K6" t="n">
-        <v>44468.94063394235</v>
+        <v>29658.92379482842</v>
       </c>
       <c r="L6" t="n">
-        <v>44468.94063394232</v>
+        <v>29658.92379482842</v>
       </c>
       <c r="M6" t="n">
-        <v>44468.94063394231</v>
+        <v>29658.92379482842</v>
       </c>
       <c r="N6" t="n">
-        <v>44468.94063394232</v>
+        <v>29658.92379482842</v>
       </c>
       <c r="O6" t="n">
-        <v>44468.94063394232</v>
+        <v>29658.92379482842</v>
       </c>
       <c r="P6" t="n">
-        <v>44468.94063394231</v>
+        <v>29658.92379482842</v>
       </c>
     </row>
   </sheetData>
